--- a/biology/Microbiologie/Bouillon_bilié/Bouillon_bilié.xlsx
+++ b/biology/Microbiologie/Bouillon_bilié/Bouillon_bilié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouillon_bili%C3%A9</t>
+          <t>Bouillon_bilié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouillon_bili%C3%A9</t>
+          <t>Bouillon_bilié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">identification des Enterococcus
 </t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouillon_bili%C3%A9</t>
+          <t>Bouillon_bilié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>-extrait de viande:………….4,0 g
 -peptone:………………….10,0 g
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouillon_bili%C3%A9</t>
+          <t>Bouillon_bilié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu prêt à l'emploi.
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouillon_bili%C3%A9</t>
+          <t>Bouillon_bilié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'une culture traduit la capacité des bactéries du milieu à cultiver en présence de bile (on peut utiliser la gélose BEA (gélose Bile Esculine Azide) pour le même test).
 </t>
